--- a/java/Formatted_TestCase_Template.xlsx
+++ b/java/Formatted_TestCase_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\OneDrive\Desktop\selenium\java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9798f50373434cb/Desktop/selenium/java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF000F6F-FCBA-4E00-9A27-EDA77D06B32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F9C23F8B-1566-49D7-840E-736BF60E3EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDC0B239-0EA8-4FB6-A7AC-01A8AFD504A2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>BODY</t>
   </si>
@@ -97,9 +97,6 @@
     <t>check for browser URL check for internet coonection</t>
   </si>
   <si>
-    <t>https://amzon.com/login</t>
-  </si>
-  <si>
     <t>Create page should display</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>to verify that user name text field</t>
-  </si>
-  <si>
     <t>click on user name text field</t>
   </si>
   <si>
@@ -158,6 +152,108 @@
   </si>
   <si>
     <t>blank</t>
+  </si>
+  <si>
+    <t>https://www.amzon.com/login</t>
+  </si>
+  <si>
+    <t>to verify that first name text field</t>
+  </si>
+  <si>
+    <t>*check for browser URL 
+ *check for internet coonection</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login as user A to go message  select user B send message and logout login as user B go to message and check user A message should display </t>
+  </si>
+  <si>
+    <t>*check for browser URL 
+ *check for internet coonection
+*check for device
+* check for User A and B credential</t>
+  </si>
+  <si>
+    <t>Enter User name password as user A credential click on login button</t>
+  </si>
+  <si>
+    <t>Home page should be display</t>
+  </si>
+  <si>
+    <t>click on message option</t>
+  </si>
+  <si>
+    <t>message page should be display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on user user B </t>
+  </si>
+  <si>
+    <t>username-&gt;sandesh
+password--&gt;12345678</t>
+  </si>
+  <si>
+    <t>user B chat page should be display</t>
+  </si>
+  <si>
+    <t>type and send message to B</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>message has been send</t>
+  </si>
+  <si>
+    <t>Logout as user A</t>
+  </si>
+  <si>
+    <t>Enter User name password as user B credential click on login button</t>
+  </si>
+  <si>
+    <t>username-&gt;userB
+password--&gt;12345678</t>
+  </si>
+  <si>
+    <t>click on User A</t>
+  </si>
+  <si>
+    <t>user A chat page should be display with proper message</t>
+  </si>
+  <si>
+    <t>Logout as user B</t>
+  </si>
+  <si>
+    <t>login page should be display</t>
+  </si>
+  <si>
+    <t>https://www.whatsapp.com/login</t>
+  </si>
+  <si>
+    <t>click on status option</t>
+  </si>
+  <si>
+    <t>status page should be display</t>
+  </si>
+  <si>
+    <t>status should be display</t>
+  </si>
+  <si>
+    <t>check user A status</t>
+  </si>
+  <si>
+    <t>login as user A to go status upload status go to user B go to status check status of A should be display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select picture and upload status </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*check for browser URL 
+ *check for internet coonection
+*check for device
+</t>
   </si>
 </sst>
 </file>
@@ -363,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -397,11 +493,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -411,9 +519,6 @@
   <dxfs count="15">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -530,7 +635,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -547,7 +652,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -573,6 +678,39 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -612,36 +750,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -656,19 +764,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7EDE56F4-D961-45F3-9A25-97DBD2A2FF43}" name="Table4" displayName="Table4" ref="A12:J32" totalsRowShown="0" headerRowDxfId="11" dataDxfId="0" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
-  <autoFilter ref="A12:J32" xr:uid="{7EDE56F4-D961-45F3-9A25-97DBD2A2FF43}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7EDE56F4-D961-45F3-9A25-97DBD2A2FF43}" name="Table4" displayName="Table4" ref="A12:J54" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A12:J54" xr:uid="{7EDE56F4-D961-45F3-9A25-97DBD2A2FF43}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{AECB9F7E-5744-45EE-AA7E-31D754720313}" name="Sr No" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{4B0B1FD6-3A68-48A2-BCDB-8E6705BE023B}" name="Test Scenarios" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{7F93C9CB-9A9D-4251-9177-95C8E7F41A3C}" name="PreConditions" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{99008E48-F22C-44C1-B143-3B092382E4E9}" name="Test Step No" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{89C55B12-DBE1-446A-908A-94B544675D10}" name="Test Steps/Action Description" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{CAA63169-C49D-4B52-BAFF-E817B17762AA}" name="Input/TestData" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{E73127CE-798A-49AB-BCC7-C6C1D4E912BB}" name="Expected Result" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{1B7961B3-E3B0-4066-A1FA-C14814856028}" name="Actual Result" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9A97A265-42E7-451B-B9C7-0FB3C3B948FF}" name="Status" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{B2F196F5-9BD9-4CC2-A291-8207785EEC95}" name="Comments" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{AECB9F7E-5744-45EE-AA7E-31D754720313}" name="Sr No" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{4B0B1FD6-3A68-48A2-BCDB-8E6705BE023B}" name="Test Scenarios" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{7F93C9CB-9A9D-4251-9177-95C8E7F41A3C}" name="PreConditions" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{99008E48-F22C-44C1-B143-3B092382E4E9}" name="Test Step No" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{89C55B12-DBE1-446A-908A-94B544675D10}" name="Test Steps/Action Description" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{CAA63169-C49D-4B52-BAFF-E817B17762AA}" name="Input/TestData" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{E73127CE-798A-49AB-BCC7-C6C1D4E912BB}" name="Expected Result" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{1B7961B3-E3B0-4066-A1FA-C14814856028}" name="Actual Result" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{9A97A265-42E7-451B-B9C7-0FB3C3B948FF}" name="Status" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{B2F196F5-9BD9-4CC2-A291-8207785EEC95}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -959,17 +1067,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:J107"/>
+  <dimension ref="A3:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="2" max="2" width="25" style="15" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="15" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" customWidth="1"/>
@@ -1022,10 +1130,10 @@
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1054,23 +1162,23 @@
       <c r="A13" s="7">
         <v>1</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="17" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1078,19 +1186,19 @@
     </row>
     <row r="14" spans="1:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="6">
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="G14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1100,23 +1208,23 @@
       <c r="A15" s="7">
         <v>2</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>24</v>
+      <c r="B15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1124,19 +1232,19 @@
     </row>
     <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="6">
         <v>2</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="G16" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1144,19 +1252,19 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="6">
         <v>3</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1164,15 +1272,15 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1180,15 +1288,15 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1196,15 +1304,15 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1212,15 +1320,15 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -1228,15 +1336,15 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -1244,15 +1352,15 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -1260,15 +1368,15 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -1276,15 +1384,15 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -1292,15 +1400,15 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6">
         <v>123</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -1308,15 +1416,15 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -1324,15 +1432,15 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -1340,8 +1448,8 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -1350,64 +1458,492 @@
       <c r="I29" s="6"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+    <row r="30" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>3</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="6">
+        <v>2</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="11">
+        <v>3</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="12"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="11">
+        <v>4</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="11">
+        <v>5</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="11">
+        <v>6</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="11">
+        <v>7</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="6">
+        <v>8</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="11">
+        <v>9</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="11">
         <v>10</v>
       </c>
+      <c r="E39" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
+        <v>4</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="6">
+        <v>2</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="11">
+        <v>3</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="11">
+        <v>4</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="11">
+        <v>5</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="11">
+        <v>6</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="11">
+        <v>7</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="6">
+        <v>8</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="9"/>
+    </row>
+    <row r="49" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="11">
+        <v>9</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="12"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="10"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="12"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="10"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="12"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="10"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="12"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>11</v>
+      <c r="A104" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1415,12 +1951,13 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F13" r:id="rId1" xr:uid="{04B48167-3284-40B3-9B79-A3DB8732EE83}"/>
-    <hyperlink ref="F15" r:id="rId2" xr:uid="{A5C77130-19F3-4C60-8F71-889DCD203239}"/>
+    <hyperlink ref="F30" r:id="rId2" xr:uid="{5CE50587-584F-40FD-B49A-ECDCC6B6C041}"/>
+    <hyperlink ref="F41" r:id="rId3" xr:uid="{CBD52FC4-4CD3-4B87-BDCB-8AECF41EEB60}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>